--- a/プログラム作成部分まとめExcel/20200925課題.xlsx
+++ b/プログラム作成部分まとめExcel/20200925課題.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minam\Desktop\Parsonal\プログラム作成部分まとめExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F811F0A5-68F2-44A4-AB9A-E766A00A2DCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352B083B-EC7E-442C-89E5-C19CB8CDD160}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{95839D27-AC0F-4341-9812-18C8C7AC9704}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{811450E8-883C-4717-9EA2-35ADDA4E95D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,127 +25,234 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>2020/9/23プログラム作成部分作業まとめ</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>2020/9/25プログラム作成部分作業まとめ</t>
     <rPh sb="14" eb="20">
       <t>サクセイブブンサギョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>↑データセットに対する様々なスケール変換と前処理結果</t>
-    <rPh sb="8" eb="9">
+    <t>主成分分析(PCA)実装</t>
+    <rPh sb="0" eb="3">
+      <t>シュセイブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→データセットの特徴量を相互に統計的に関連しないように回転する手法</t>
+    <rPh sb="8" eb="10">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソウゴ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>トウケイテキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シュホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑PCAを用いたデータ変換</t>
+    <rPh sb="5" eb="6">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右上：最初の主成分がx軸に沿うように、2つ目の主成分がy軸に沿うように回転させたもの</t>
+    <rPh sb="0" eb="2">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>シュセイブン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>シュセイブン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左下：主成分のうちいくつか残すことで次元削除したもの(2次元を1次元に)</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダリシタ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シュセイブン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジゲン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジゲン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右下：逆回転して平均を足しデータをもとに戻したもの</t>
+    <rPh sb="0" eb="2">
+      <t>ミギシタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑腫瘍データに対する最初の2成分を用いた2次元プロット</t>
+    <rPh sb="1" eb="3">
+      <t>シュヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
       <t>タイ</t>
     </rPh>
+    <rPh sb="10" eb="12">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2つのクラスがきれいに分離できている</t>
     <rPh sb="11" eb="13">
-      <t>サマザマ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>マエショリ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>使うスケール変換器によって、特徴量のばらつき具合が変わることがわかる</t>
-    <rPh sb="0" eb="1">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
+      <t>ブンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2つの軸の解釈が容易でないのが欠点</t>
+    <rPh sb="3" eb="4">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイシャク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケッテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←個々のデータポイントの特徴量が特定のレンジに何回入ったか数えて作成したヒストグラム</t>
+    <rPh sb="1" eb="3">
+      <t>ココ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
       <t>トクチョウリョウ</t>
     </rPh>
-    <rPh sb="22" eb="24">
-      <t>グアイ</t>
+    <rPh sb="16" eb="18">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ナンカイ</t>
     </rPh>
     <rPh sb="25" eb="26">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>様々なスケール変換を可視化するプログラム実装</t>
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カゾ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個々の特徴量の2つのクラスに対する分布がわかり、</t>
     <rPh sb="0" eb="2">
-      <t>サマザマ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>カシカ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>腫瘍データに対してスケール変換を適用する部分実装</t>
-    <rPh sb="0" eb="2">
-      <t>シュヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
+      <t>ココ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>トクチョウリョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
       <t>タイ</t>
     </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>テキヨウ</t>
-    </rPh>
-    <rPh sb="20" eb="24">
-      <t>ブブンジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今回からしばらく教師なし学習を勉強(今までは教師あり学習)</t>
-    <rPh sb="0" eb="2">
-      <t>コンカイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キョウシ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ベンキョウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>キョウシ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ガクシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>→今回の勉強で使用したのはMinMaxScaler</t>
-    <rPh sb="1" eb="3">
-      <t>コンカイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ベンキョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <rPh sb="17" eb="19">
+      <t>ブンプ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どの特徴量が良性と悪性を見分けるのに役に立ちそうか類推できる</t>
   </si>
 </sst>
 </file>
@@ -216,23 +323,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>667352</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>589533</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>208989</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>94702</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74C60274-AAE8-4FDD-B82E-C6A8E2888162}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65E54130-2850-47D5-8425-90B8E0CC5012}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -248,8 +355,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6200775"/>
-          <a:ext cx="8133333" cy="4485714"/>
+          <a:off x="12325952" y="5715000"/>
+          <a:ext cx="4819048" cy="4380952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -267,23 +374,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>259749</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5D2F279-CB91-4D7A-A133-719A5F4F1878}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E0E08B1-D39C-4702-A4C6-AB7AF4D68FED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -292,25 +399,26 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8915400" y="238125"/>
-          <a:ext cx="7772400" cy="4371975"/>
+          <a:off x="6858000" y="5715000"/>
+          <a:ext cx="4374549" cy="8810625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -319,21 +427,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304076</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>37381</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DAB15BF-9FD0-41E7-BAED-BF828A919C21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7C6DFE4-B486-4C50-9394-4FB1C3277DAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -342,7 +450,58 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5715000"/>
+          <a:ext cx="5790476" cy="5752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{239D423A-89C8-4DDB-966C-944A3216E2CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -365,268 +524,54 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="吹き出し: 四角形 6">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10C646A5-4277-4666-83BF-F07F3B2920A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92EA4C92-2DB9-4BCB-BABC-58E65291107B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10306050" y="2886075"/>
-          <a:ext cx="2590800" cy="1257300"/>
+          <a:off x="8229600" y="238125"/>
+          <a:ext cx="7772400" cy="4371975"/>
         </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 74388"/>
-            <a:gd name="adj2" fmla="val -17803"/>
-          </a:avLst>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>訓練データをスケール変換すると、</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>変換されたデータの配列は元のデータと同じ形をしている</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>すべての特徴量が、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>0</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>と</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>の間になっている</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="吹き出し: 四角形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F02235-DAF8-4898-8508-EE2C25615B59}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14897100" y="4619625"/>
-          <a:ext cx="2590800" cy="1066800"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -20097"/>
-            <a:gd name="adj2" fmla="val -108712"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>テストデータをスケール変換すると、</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>特徴量によって、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>0</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>と</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>の範囲から出ているものもある</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>常にまったく同じ変換を施すのが原因</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -928,8 +873,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE5E8F6-E368-459A-BD96-F153C5A41695}">
-  <dimension ref="A1:A50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028D1789-16CD-43E4-B787-43FDFC9E39ED}">
+  <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -940,33 +885,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>5</v>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="18:19" x14ac:dyDescent="0.4">
+      <c r="S44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="18:19" x14ac:dyDescent="0.4">
+      <c r="S45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="18:19" x14ac:dyDescent="0.4">
+      <c r="R47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="18:19" x14ac:dyDescent="0.4">
+      <c r="R48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="R49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
         <v>6</v>
       </c>
     </row>
